--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,19 +94,10 @@
     <t>Notch4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H2">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>58.14422083711639</v>
+        <v>3.198251232241</v>
       </c>
       <c r="R2">
-        <v>58.14422083711639</v>
+        <v>12.793004928964</v>
       </c>
       <c r="S2">
-        <v>0.5955074734654491</v>
+        <v>0.009301470531422084</v>
       </c>
       <c r="T2">
-        <v>0.5955074734654491</v>
+        <v>0.007484599616056184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H3">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>1.726716713887264</v>
+        <v>0.09979470951416666</v>
       </c>
       <c r="R3">
-        <v>1.726716713887264</v>
+        <v>0.598768257085</v>
       </c>
       <c r="S3">
-        <v>0.01768486520024306</v>
+        <v>0.0002902328436179282</v>
       </c>
       <c r="T3">
-        <v>0.01768486520024306</v>
+        <v>0.0003503118064887625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H4">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>0.5535393439685093</v>
+        <v>0.0573299669015</v>
       </c>
       <c r="R4">
-        <v>0.5535393439685093</v>
+        <v>0.343979801409</v>
       </c>
       <c r="S4">
-        <v>0.005669296302273008</v>
+        <v>0.0001667326795112521</v>
       </c>
       <c r="T4">
-        <v>0.005669296302273008</v>
+        <v>0.0002012467832110322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H5">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>1.294756455671012</v>
+        <v>0.07815556813466665</v>
       </c>
       <c r="R5">
-        <v>1.294756455671012</v>
+        <v>0.4689334088079999</v>
       </c>
       <c r="S5">
-        <v>0.01326077010868691</v>
+        <v>0.0002272997526094203</v>
       </c>
       <c r="T5">
-        <v>0.01326077010868691</v>
+        <v>0.0002743513999259049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H6">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>34.93661186703184</v>
+        <v>1.9918011701705</v>
       </c>
       <c r="R6">
-        <v>34.93661186703184</v>
+        <v>11.950807021023</v>
       </c>
       <c r="S6">
-        <v>0.3578173920785995</v>
+        <v>0.005792753146478543</v>
       </c>
       <c r="T6">
-        <v>0.3578173920785995</v>
+        <v>0.006991868301293141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0572405</v>
+      </c>
+      <c r="H7">
+        <v>0.114481</v>
+      </c>
+      <c r="I7">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J7">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.127115</v>
+      </c>
+      <c r="N7">
+        <v>2.25423</v>
+      </c>
+      <c r="O7">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P7">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q7">
+        <v>0.06451662615749999</v>
+      </c>
+      <c r="R7">
+        <v>0.25806650463</v>
+      </c>
+      <c r="S7">
+        <v>0.0001876336326994157</v>
+      </c>
+      <c r="T7">
+        <v>0.0001509828591637287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.506518</v>
+      </c>
+      <c r="I8">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J8">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>55.873922</v>
+      </c>
+      <c r="N8">
+        <v>111.747844</v>
+      </c>
+      <c r="O8">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P8">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q8">
+        <v>9.433715741198666</v>
+      </c>
+      <c r="R8">
+        <v>56.602294447192</v>
+      </c>
+      <c r="S8">
+        <v>0.02743606508582124</v>
+      </c>
+      <c r="T8">
+        <v>0.03311540280330838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.506518</v>
+      </c>
+      <c r="I9">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J9">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.230285</v>
+      </c>
+      <c r="O9">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P9">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q9">
+        <v>0.2943592775144445</v>
+      </c>
+      <c r="R9">
+        <v>2.64923349763</v>
+      </c>
+      <c r="S9">
+        <v>0.0008560847621507254</v>
+      </c>
+      <c r="T9">
+        <v>0.001549944843241018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.506518</v>
+      </c>
+      <c r="I10">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J10">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.001563</v>
+      </c>
+      <c r="N10">
+        <v>3.004689</v>
+      </c>
+      <c r="O10">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P10">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q10">
+        <v>0.1691032292113333</v>
+      </c>
+      <c r="R10">
+        <v>1.521929062902</v>
+      </c>
+      <c r="S10">
+        <v>0.0004918027350138474</v>
+      </c>
+      <c r="T10">
+        <v>0.0008904107942670452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.506518</v>
+      </c>
+      <c r="I11">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J11">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.096168</v>
+      </c>
+      <c r="O11">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P11">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q11">
+        <v>0.2305314247804444</v>
+      </c>
+      <c r="R11">
+        <v>2.074782823024</v>
+      </c>
+      <c r="S11">
+        <v>0.0006704542884392365</v>
+      </c>
+      <c r="T11">
+        <v>0.001213860137382356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.506518</v>
+      </c>
+      <c r="I12">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J12">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.797061</v>
+      </c>
+      <c r="N12">
+        <v>104.391183</v>
+      </c>
+      <c r="O12">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P12">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q12">
+        <v>5.875112581199334</v>
+      </c>
+      <c r="R12">
+        <v>52.876013230794</v>
+      </c>
+      <c r="S12">
+        <v>0.01708658344032645</v>
+      </c>
+      <c r="T12">
+        <v>0.0309353268073689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.506518</v>
+      </c>
+      <c r="I13">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J13">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.127115</v>
+      </c>
+      <c r="N13">
+        <v>2.25423</v>
+      </c>
+      <c r="O13">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P13">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q13">
+        <v>0.19030134519</v>
+      </c>
+      <c r="R13">
+        <v>1.14180807114</v>
+      </c>
+      <c r="S13">
+        <v>0.0005534531923355122</v>
+      </c>
+      <c r="T13">
+        <v>0.0006680194605034334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="H7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="N7">
-        <v>0.943905765838942</v>
-      </c>
-      <c r="O7">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="P7">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="Q7">
-        <v>0.9822591351662896</v>
-      </c>
-      <c r="R7">
-        <v>0.9822591351662896</v>
-      </c>
-      <c r="S7">
-        <v>0.01006020284474834</v>
-      </c>
-      <c r="T7">
-        <v>0.01006020284474834</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.207235</v>
+      </c>
+      <c r="I14">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J14">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.873922</v>
+      </c>
+      <c r="N14">
+        <v>111.747844</v>
+      </c>
+      <c r="O14">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P14">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q14">
+        <v>3.859677408556667</v>
+      </c>
+      <c r="R14">
+        <v>23.15806445134</v>
+      </c>
+      <c r="S14">
+        <v>0.0112250955505237</v>
+      </c>
+      <c r="T14">
+        <v>0.01354871988743463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.207235</v>
+      </c>
+      <c r="I15">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J15">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.230285</v>
+      </c>
+      <c r="O15">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P15">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q15">
+        <v>0.1204331235527778</v>
+      </c>
+      <c r="R15">
+        <v>1.083898111975</v>
+      </c>
+      <c r="S15">
+        <v>0.0003502555204046165</v>
+      </c>
+      <c r="T15">
+        <v>0.0006341390031332596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.207235</v>
+      </c>
+      <c r="I16">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J16">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.001563</v>
+      </c>
+      <c r="N16">
+        <v>3.004689</v>
+      </c>
+      <c r="O16">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P16">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q16">
+        <v>0.06918630276833333</v>
+      </c>
+      <c r="R16">
+        <v>0.622676724915</v>
+      </c>
+      <c r="S16">
+        <v>0.0002012144480365844</v>
+      </c>
+      <c r="T16">
+        <v>0.0003642995529278941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.207235</v>
+      </c>
+      <c r="I17">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J17">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.096168</v>
+      </c>
+      <c r="O17">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P17">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q17">
+        <v>0.09431881949777778</v>
+      </c>
+      <c r="R17">
+        <v>0.84886937548</v>
+      </c>
+      <c r="S17">
+        <v>0.0002743073187225433</v>
+      </c>
+      <c r="T17">
+        <v>0.0004966344840073453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.207235</v>
+      </c>
+      <c r="I18">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J18">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.797061</v>
+      </c>
+      <c r="N18">
+        <v>104.391183</v>
+      </c>
+      <c r="O18">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P18">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q18">
+        <v>2.403722978778334</v>
+      </c>
+      <c r="R18">
+        <v>21.633506809005</v>
+      </c>
+      <c r="S18">
+        <v>0.006990744888150179</v>
+      </c>
+      <c r="T18">
+        <v>0.01265677123206894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.207235</v>
+      </c>
+      <c r="I19">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J19">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.127115</v>
+      </c>
+      <c r="N19">
+        <v>2.25423</v>
+      </c>
+      <c r="O19">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P19">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q19">
+        <v>0.07785922567499999</v>
+      </c>
+      <c r="R19">
+        <v>0.46715535405</v>
+      </c>
+      <c r="S19">
+        <v>0.0002264379001608035</v>
+      </c>
+      <c r="T19">
+        <v>0.0002733111417509921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.289964</v>
+      </c>
+      <c r="H20">
+        <v>6.579928</v>
+      </c>
+      <c r="I20">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J20">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>55.873922</v>
+      </c>
+      <c r="N20">
+        <v>111.747844</v>
+      </c>
+      <c r="O20">
+        <v>0.5825754174893317</v>
+      </c>
+      <c r="P20">
+        <v>0.4843347495294592</v>
+      </c>
+      <c r="Q20">
+        <v>183.823191918808</v>
+      </c>
+      <c r="R20">
+        <v>735.292767675232</v>
+      </c>
+      <c r="S20">
+        <v>0.5346127863215647</v>
+      </c>
+      <c r="T20">
+        <v>0.43018602722266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.289964</v>
+      </c>
+      <c r="H21">
+        <v>6.579928</v>
+      </c>
+      <c r="I21">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J21">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.743428333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.230285</v>
+      </c>
+      <c r="O21">
+        <v>0.01817804179120264</v>
+      </c>
+      <c r="P21">
+        <v>0.02266897225724272</v>
+      </c>
+      <c r="Q21">
+        <v>5.735816453246667</v>
+      </c>
+      <c r="R21">
+        <v>34.41489871948</v>
+      </c>
+      <c r="S21">
+        <v>0.01668146866502937</v>
+      </c>
+      <c r="T21">
+        <v>0.02013457660437968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.289964</v>
+      </c>
+      <c r="H22">
+        <v>6.579928</v>
+      </c>
+      <c r="I22">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J22">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.001563</v>
+      </c>
+      <c r="N22">
+        <v>3.004689</v>
+      </c>
+      <c r="O22">
+        <v>0.0104429036298341</v>
+      </c>
+      <c r="P22">
+        <v>0.01302284896189067</v>
+      </c>
+      <c r="Q22">
+        <v>3.295106213732</v>
+      </c>
+      <c r="R22">
+        <v>19.770637282392</v>
+      </c>
+      <c r="S22">
+        <v>0.00958315376727242</v>
+      </c>
+      <c r="T22">
+        <v>0.0115668918314847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.289964</v>
+      </c>
+      <c r="H23">
+        <v>6.579928</v>
+      </c>
+      <c r="I23">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J23">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.365389333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.096168</v>
+      </c>
+      <c r="O23">
+        <v>0.014236377766754</v>
+      </c>
+      <c r="P23">
+        <v>0.01775351032553778</v>
+      </c>
+      <c r="Q23">
+        <v>4.492081752650666</v>
+      </c>
+      <c r="R23">
+        <v>26.952490515904</v>
+      </c>
+      <c r="S23">
+        <v>0.0130643164069828</v>
+      </c>
+      <c r="T23">
+        <v>0.01576866430422218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.289964</v>
+      </c>
+      <c r="H24">
+        <v>6.579928</v>
+      </c>
+      <c r="I24">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J24">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>34.797061</v>
+      </c>
+      <c r="N24">
+        <v>104.391183</v>
+      </c>
+      <c r="O24">
+        <v>0.3628152743506486</v>
+      </c>
+      <c r="P24">
+        <v>0.4524496908538919</v>
+      </c>
+      <c r="Q24">
+        <v>114.481077995804</v>
+      </c>
+      <c r="R24">
+        <v>686.886467974824</v>
+      </c>
+      <c r="S24">
+        <v>0.3329451928756935</v>
+      </c>
+      <c r="T24">
+        <v>0.4018657245131609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.289964</v>
+      </c>
+      <c r="H25">
+        <v>6.579928</v>
+      </c>
+      <c r="I25">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J25">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.127115</v>
+      </c>
+      <c r="N25">
+        <v>2.25423</v>
+      </c>
+      <c r="O25">
+        <v>0.01175198497222887</v>
+      </c>
+      <c r="P25">
+        <v>0.00977022807197777</v>
+      </c>
+      <c r="Q25">
+        <v>3.70816777386</v>
+      </c>
+      <c r="R25">
+        <v>14.83267109544</v>
+      </c>
+      <c r="S25">
+        <v>0.01078446024703314</v>
+      </c>
+      <c r="T25">
+        <v>0.008677914610559615</v>
       </c>
     </row>
   </sheetData>
